--- a/biology/Microbiologie/Clavibacter_michiganensis/Clavibacter_michiganensis.xlsx
+++ b/biology/Microbiologie/Clavibacter_michiganensis/Clavibacter_michiganensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavibacter
 Clavibacter michiganensis, unique représentant du genre Clavibacter, est une espèce de bactéries à Gram-positif, aérobie, non sporulante, et agent pathogène des plantes.
@@ -491,7 +503,7 @@
 Clavibacter michiganensis subsp. nebraskensis infecte le maïs (Zea mays) ;
 Clavibacter michiganensis subsp. tesselarius infecte le blé ;
 Clavibacter michiganensis subsp. insidiosus infecte la luzerne.
-Clavibacter xyli subsp. xyli a été retirée du genre Clavibacter pour être reclassée sous un nouveau genre, Leifsonia, avec Leifsonia poae. Cette bactérie se trouve dans les galles racinaires de Poa annua L. (pâturin annuel), et Leifsonia aquatica, est une bactérie autotrophe[4].
+Clavibacter xyli subsp. xyli a été retirée du genre Clavibacter pour être reclassée sous un nouveau genre, Leifsonia, avec Leifsonia poae. Cette bactérie se trouve dans les galles racinaires de Poa annua L. (pâturin annuel), et Leifsonia aquatica, est une bactérie autotrophe.
 </t>
         </is>
       </c>
@@ -520,9 +532,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 sept. 2011)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 sept. 2011) :
 sous-espèce Clavibacter michiganensis subsp. insidiosus
 sous-espèce Clavibacter michiganensis subsp. michiganensis
 sous-espèce Clavibacter michiganensis subsp. nebraskensis
@@ -555,9 +569,11 @@
           <t>Dissémination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet agent phytopathogène est inscrit sur la liste établie par le groupe Australie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet agent phytopathogène est inscrit sur la liste établie par le groupe Australie.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Espèce Clavibacter michiganensis :
 Erwin Frink Smith, Bacteria in relation to plant diseases - Volume three: Vascular Diseases (continued), 1914, 309 p. (lire en ligne)
